--- a/biology/Zoologie/Inséparable_à_tête_grise/Inséparable_à_tête_grise.xlsx
+++ b/biology/Zoologie/Inséparable_à_tête_grise/Inséparable_à_tête_grise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_%C3%A0_t%C3%AAte_grise</t>
+          <t>Inséparable_à_tête_grise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agapornis canus
 L'Inséparable à tête grise (Agapornis canus) est une espèce d'oiseau appartenant à la famille des Psittacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_%C3%A0_t%C3%AAte_grise</t>
+          <t>Inséparable_à_tête_grise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est le plus petit (13 à 15 cm) des inséparables avec l'Inséparable à collier noir. Comparé aux autres espèces du genre, il donne une impression de délicatesse aussi bien sur le plan de la morphologie (en relation avec un bec peu développé par rapport à la taille de la tête et des pattes plus minces) que du comportement.
 Cette espèce présente un plumage à dominante verte et un net dimorphisme sexuel.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_%C3%A0_t%C3%AAte_grise</t>
+          <t>Inséparable_à_tête_grise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple Madagascar. Elle a été introduite sur certaines îles voisines.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_%C3%A0_t%C3%AAte_grise</t>
+          <t>Inséparable_à_tête_grise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'Inséparable à tête grise est représenté par deux sous-espèces :
 canus (Gmelin) peuplant une grande partie de Madagascar (à l'exception du sud-ouest) ;
